--- a/CashFlow/CDW_cashflow.xlsx
+++ b/CashFlow/CDW_cashflow.xlsx
@@ -77,7 +77,7 @@
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
@@ -674,19 +674,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2775000000.0</v>
+        <v>-71400000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2626000000.0</v>
+        <v>-36100000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2024200000.0</v>
+        <v>-45000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1266100000.0</v>
+        <v>-85200000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>459900000.0</v>
+        <v>-153000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-125800000.0</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>253700000.0</v>
+        <v>7786000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>36900000.0</v>
+        <v>7533000000.0</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
